--- a/results/household_matrix_metadata.xlsx
+++ b/results/household_matrix_metadata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Household matrix data file metadata</t>
   </si>
@@ -27,13 +27,10 @@
     <t>The file household_matrix_10.csv contains the household contact matrix in eight 10-year age groups (0-9, 10-19, …, 70+)</t>
   </si>
   <si>
-    <t>The files household_matrix_10.csv and household_matrix_5.csv contain the household contacts matrices calculated form the New Zealand household composition data according to the Methods described in the article "Quantifying age-specific household contacts in Aotearoa New Zealand for infectious disease modelling".</t>
+    <t>The file household_matrix_10.csv (Table S4 in the Supplementary Material to the paper) contains the household contacts matrix calculated form the New Zealand household composition data according to the Methods described in the paper "Quantifying age-specific household contacts in Aotearoa New Zealand for infectious disease modelling".</t>
   </si>
   <si>
-    <t>The file household_matrix_5.csv contains the household contact matrix in sixteen 5-year age groups (0-4, 5-10, …, 75+)</t>
-  </si>
-  <si>
-    <t>For each matrix, the number in the ith row and jth column represents the average number of household contacts that an individual in age group i has with individuals in age group j</t>
+    <t>The number in the ith row and jth column represents the average number of household contacts that an individual in age group i has with individuals in age group j</t>
   </si>
 </sst>
 </file>
@@ -365,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,14 +388,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
